--- a/biology/Médecine/Serge_Bazelaire/Serge_Bazelaire.xlsx
+++ b/biology/Médecine/Serge_Bazelaire/Serge_Bazelaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Serge Bazelaire est un gynécologue français né à Paris le 15 juillet 1922 et mort à Reims le 5 décembre 1991[1]. Il joua un rôle important à Reims dans le développement des cliniques privées, dans la promotion de l’accouchement sans douleur et assura la présidence du stade de Reims de 1974 à 1990.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Bazelaire est un gynécologue français né à Paris le 15 juillet 1922 et mort à Reims le 5 décembre 1991. Il joua un rôle important à Reims dans le développement des cliniques privées, dans la promotion de l’accouchement sans douleur et assura la présidence du stade de Reims de 1974 à 1990.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Serge Bazelaire est né à Paris 15e le 15 juillet 1922.
-Il devient docteur en médecine en 1952. Il fut professeur à l’École des sages-femmes du CHR de Reims. Le docteur Serge Bazelaire ouvre une première clinique avec 12 lits. Il ouvre, en 1959, une deuxième clinique qu’il nomme « Les Bleuets »[2]. Il est un fervent promoteur de la technique de l’accouchement sans douleur[3]. En 1971, il ouvre un troisième établissement : la polyclinique Les Bleuets II.
+Il devient docteur en médecine en 1952. Il fut professeur à l’École des sages-femmes du CHR de Reims. Le docteur Serge Bazelaire ouvre une première clinique avec 12 lits. Il ouvre, en 1959, une deuxième clinique qu’il nomme « Les Bleuets ». Il est un fervent promoteur de la technique de l’accouchement sans douleur. En 1971, il ouvre un troisième établissement : la polyclinique Les Bleuets II.
 A coté de ses activités médicales, le docteur Bazelaire fut membre du Comité directeur du Stade de Reims, dès 1966, puis en devint président de 1974 à 1990.
 Il meurt à Reims le 5 décembre 1991 et repose au Cimetière du Nord de Reims.
 </t>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maternité - Fécondation, grossesse, accouchement, nourrisson  de Serge Bazelaire, Roger Hersilie, René Bodenschatz – 1973 –Editeur la Table Ronde - (ISBN 9791037100498) –  (ISBN 2710319020)</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2000, une rue est baptisée en son honneur dans le quartier de La Neuvillette de Reims.
 </t>
